--- a/Office space in Frisco.xlsx
+++ b/Office space in Frisco.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rkuma239\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931798A7-E60F-4EAC-B87C-6215090682E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063C151-7CB4-4D67-8769-98C79C906093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-795" windowWidth="29040" windowHeight="15720" xr2:uid="{BA1B0921-53F2-47C2-8981-75016FFCEC0F}"/>
+    <workbookView xWindow="-28920" yWindow="-795" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA1B0921-53F2-47C2-8981-75016FFCEC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
   <si>
     <t>Realter Name</t>
   </si>
@@ -264,13 +268,232 @@
   </si>
   <si>
     <t>Eric Fletcher</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Heating and cooling</t>
+  </si>
+  <si>
+    <t>Trash removal</t>
+  </si>
+  <si>
+    <t>Internet and phone services</t>
+  </si>
+  <si>
+    <t>What amenities are available (e.g., conference rooms, break rooms, security)?</t>
+  </si>
+  <si>
+    <t>What is the process for making changes to the office layout?</t>
+  </si>
+  <si>
+    <t>What are the terms for lease renewal and rent increases?</t>
+  </si>
+  <si>
+    <t>What is included in the lease (utilities, maintenance, etc.)?</t>
+  </si>
+  <si>
+    <t>Are there any common areas, and how much access do tenants have to them?</t>
+  </si>
+  <si>
+    <t>What are the parking options for employees and visitors?</t>
+  </si>
+  <si>
+    <t>price per sqft? And minimum lease term</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>is there any Common Area Maintenance (CAM) Fees?</t>
+  </si>
+  <si>
+    <t>Maintenance and Repairs ? What landlord covers ?</t>
+  </si>
+  <si>
+    <t>operating cost?</t>
+  </si>
+  <si>
+    <t>1704 Bridgewater Blvd, Prosper, TX 75078</t>
+  </si>
+  <si>
+    <t>community Name</t>
+  </si>
+  <si>
+    <t>Light Farms - Elite Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city </t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>toll brothers</t>
+  </si>
+  <si>
+    <t>4320 Valencia Drive Prosper, TX 75078</t>
+  </si>
+  <si>
+    <t>Ladera Prosper</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Ladera Living</t>
+  </si>
+  <si>
+    <t>Community by M/I Homes</t>
+  </si>
+  <si>
+    <t>1401 Snapdragon Court, Prosper, TX 75078</t>
+  </si>
+  <si>
+    <t>Lilyana</t>
+  </si>
+  <si>
+    <t>Mustang Lakes</t>
+  </si>
+  <si>
+    <t>2316 Sorrelwood Court, Celina, TX 75009</t>
+  </si>
+  <si>
+    <t>Perry Homes</t>
+  </si>
+  <si>
+    <t>Celina</t>
+  </si>
+  <si>
+    <t>Prosper</t>
+  </si>
+  <si>
+    <t>Olivia Clarke Homes</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Frisco</t>
+  </si>
+  <si>
+    <t>3967 Honeycutt Dr, Frisco, TX 75033</t>
+  </si>
+  <si>
+    <t>Landon Homes</t>
+  </si>
+  <si>
+    <t>10575 Wells Branch, Frisco, TX 75035</t>
+  </si>
+  <si>
+    <t>Lexington Frisco Duets 41s</t>
+  </si>
+  <si>
+    <t>Lexington Frisco Symmetry 37s</t>
+  </si>
+  <si>
+    <t>10618 Tall Timbers Trl, Frisco, TX 75035</t>
+  </si>
+  <si>
+    <t>Windsong Ranch</t>
+  </si>
+  <si>
+    <t>Bloomfield Homes</t>
+  </si>
+  <si>
+    <t>4250 Old Rosebud Lane, Prosper, TX 75078</t>
+  </si>
+  <si>
+    <t>Normandy Homes</t>
+  </si>
+  <si>
+    <t>Celina Hills</t>
+  </si>
+  <si>
+    <t>1211 Yellow Pine Road, Celina, TX 75009</t>
+  </si>
+  <si>
+    <t>Trophy Signature Homes</t>
+  </si>
+  <si>
+    <t>Cross Creek Meadows</t>
+  </si>
+  <si>
+    <t>2032 Bluestem Road, Celina, TX 75009</t>
+  </si>
+  <si>
+    <t>Wilson Creek Meadows</t>
+  </si>
+  <si>
+    <t>Pulte Homes</t>
+  </si>
+  <si>
+    <t>2908 Hillstone Drive, Celina, TX 75009</t>
+  </si>
+  <si>
+    <t>David Weekley Homes</t>
+  </si>
+  <si>
+    <t>2420 Liberty Court, Celina, TX 75009</t>
+  </si>
+  <si>
+    <t>The Parks at Wilson Creek</t>
+  </si>
+  <si>
+    <t>3093 Eleanor Drive, Prosper, TX 75078</t>
+  </si>
+  <si>
+    <t>Dominion at Brookhollow</t>
+  </si>
+  <si>
+    <t>1121 Crescent Lane, Prosper, TX 75078</t>
+  </si>
+  <si>
+    <t>Normandy Home</t>
+  </si>
+  <si>
+    <t>1817 Running Creek Trail, Aubrey, TX 76227</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>Union Park</t>
+  </si>
+  <si>
+    <t>Grand Homes</t>
+  </si>
+  <si>
+    <t>McKinney</t>
+  </si>
+  <si>
+    <t>4837 McKinney Hollow Dr, McKinney, TX 75070</t>
+  </si>
+  <si>
+    <t>Lake Forest</t>
+  </si>
+  <si>
+    <t>4016 Holbrook Way, McKinney, TX 75071</t>
+  </si>
+  <si>
+    <t>Highland Lakes</t>
+  </si>
+  <si>
+    <t>ArrowBrooke</t>
+  </si>
+  <si>
+    <t>2200 Broken Arrow Drive, Aubrey, TX 76227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +511,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4B4B4B"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -313,10 +554,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,305 +896,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4612171B-1F08-4ED3-A964-1F82B5011C85}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>4695998811</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>9729132742</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6FD99B-40E2-4DBB-8A93-42CD49E0683C}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{6B6FD99B-40E2-4DBB-8A93-42CD49E0683C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Office space in Frisco.xlsx
+++ b/Office space in Frisco.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rkuma239\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E063C151-7CB4-4D67-8769-98C79C906093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0B79A9-544A-4792-85C6-22B442E2D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-795" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA1B0921-53F2-47C2-8981-75016FFCEC0F}"/>
+    <workbookView xWindow="-28920" yWindow="-795" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BA1B0921-53F2-47C2-8981-75016FFCEC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="201">
   <si>
     <t>Realter Name</t>
   </si>
@@ -487,12 +488,171 @@
   </si>
   <si>
     <t>2200 Broken Arrow Drive, Aubrey, TX 76227</t>
+  </si>
+  <si>
+    <t>Centre Living Homes</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Denali</t>
+  </si>
+  <si>
+    <t>sqft</t>
+  </si>
+  <si>
+    <t>Acadia</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Coventry Homes</t>
+  </si>
+  <si>
+    <t>Mineola</t>
+  </si>
+  <si>
+    <t>Kilgore IV</t>
+  </si>
+  <si>
+    <t>Easton</t>
+  </si>
+  <si>
+    <t>Goodlow</t>
+  </si>
+  <si>
+    <t>Da Vinci II</t>
+  </si>
+  <si>
+    <t>Picasso II</t>
+  </si>
+  <si>
+    <t>Van Gogh II</t>
+  </si>
+  <si>
+    <t>Lillian</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>2809-3327</t>
+  </si>
+  <si>
+    <t>no high ceiling</t>
+  </si>
+  <si>
+    <t>great room</t>
+  </si>
+  <si>
+    <t>garages</t>
+  </si>
+  <si>
+    <t>2474-2582</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>high ceiling</t>
+  </si>
+  <si>
+    <t>2940-3225</t>
+  </si>
+  <si>
+    <t>main floor bedroom</t>
+  </si>
+  <si>
+    <t>3111-3454</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>3187-3534</t>
+  </si>
+  <si>
+    <t>2746-3220</t>
+  </si>
+  <si>
+    <t>Tri Pointe Homes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>JULIET</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Triomphe</t>
+  </si>
+  <si>
+    <t>The Rolland</t>
+  </si>
+  <si>
+    <t>The Westgate</t>
+  </si>
+  <si>
+    <t>3003-3340</t>
+  </si>
+  <si>
+    <t>3018-3352</t>
+  </si>
+  <si>
+    <t>The Axel</t>
+  </si>
+  <si>
+    <t>2789-2971</t>
+  </si>
+  <si>
+    <t>The Jewel</t>
+  </si>
+  <si>
+    <t>2855-3179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,13 +714,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1283,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6FD99B-40E2-4DBB-8A93-42CD49E0683C}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1573,4 +1741,609 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97062020-B400-4E01-963B-D4FB83A31F1E}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2984</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3150</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2990</v>
+      </c>
+      <c r="D4" s="6">
+        <v>671990</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2969</v>
+      </c>
+      <c r="D5" s="6">
+        <v>651990</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3039</v>
+      </c>
+      <c r="D6" s="6">
+        <v>669990</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3225</v>
+      </c>
+      <c r="D7" s="6">
+        <v>681990</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3205</v>
+      </c>
+      <c r="D8" s="6">
+        <v>662900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3032</v>
+      </c>
+      <c r="D9" s="6">
+        <v>634900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3445</v>
+      </c>
+      <c r="D10" s="6">
+        <v>677900</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="6">
+        <v>563990</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="6">
+        <v>662990</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="6">
+        <v>634990</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2762</v>
+      </c>
+      <c r="D15" s="6">
+        <v>635990</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="7">
+        <v>550990</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="6">
+        <v>593990</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3356</v>
+      </c>
+      <c r="D18" s="6">
+        <v>694990</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3172</v>
+      </c>
+      <c r="D19" s="6">
+        <v>683990</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3086</v>
+      </c>
+      <c r="D20" s="6">
+        <v>648990</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2975</v>
+      </c>
+      <c r="D21" s="6">
+        <v>632990</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2712</v>
+      </c>
+      <c r="D22" s="6">
+        <v>617990</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3161</v>
+      </c>
+      <c r="D23" s="6">
+        <v>669990</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="6">
+        <v>690990</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="6">
+        <v>689990</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="6">
+        <v>674990</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="6">
+        <v>684990</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>